--- a/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1331054663988939</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1761642785710185</v>
+        <v>0.1761642785710186</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1153830378188673</v>
@@ -685,7 +685,7 @@
         <v>0.2131086291484706</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2590939437526763</v>
+        <v>0.2590939437526764</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1045735496185758</v>
@@ -697,7 +697,7 @@
         <v>0.1785871626916711</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2248070715919908</v>
+        <v>0.2248070715919909</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07527088967520344</v>
+        <v>0.07384385455493946</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1173096580074294</v>
+        <v>0.1174843082679579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1100680442132629</v>
+        <v>0.110344448896002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1463035872415613</v>
+        <v>0.1479441917483399</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09702851299000355</v>
+        <v>0.09702896461696872</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1692762161146852</v>
+        <v>0.1658787849676817</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1863487687784798</v>
+        <v>0.1854448631782997</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2370388355041591</v>
+        <v>0.2350944294484978</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09266978111127622</v>
+        <v>0.09223443512387029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1522897982807858</v>
+        <v>0.1509695928693945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1610380448205942</v>
+        <v>0.1617602895455423</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2073484690669811</v>
+        <v>0.2044404742507554</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1108823979892001</v>
+        <v>0.1103453065942334</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1616675184241329</v>
+        <v>0.1641264215965783</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1577122916353386</v>
+        <v>0.1578208222572744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2087721081796723</v>
+        <v>0.2101418548067154</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1326269424950777</v>
+        <v>0.1327683921992013</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2115091527006408</v>
+        <v>0.2117113669157514</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2416197034509042</v>
+        <v>0.241895643603987</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2850950287704537</v>
+        <v>0.2856769967326552</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1194220148644759</v>
+        <v>0.1169118496622516</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1842865681265571</v>
+        <v>0.1832170084778523</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1986404436176483</v>
+        <v>0.1977209806658901</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2438428689604303</v>
+        <v>0.2446453159836104</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05779196954809494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09548764585666011</v>
+        <v>0.09548764585666013</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06462931175521512</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02606325259768456</v>
+        <v>0.02591116773032276</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05145576224641078</v>
+        <v>0.05211200758484147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04740011433897358</v>
+        <v>0.04882115461241154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08222052429489031</v>
+        <v>0.08169768369360765</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0539142502626364</v>
+        <v>0.05310258156930615</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09468984138090106</v>
+        <v>0.09431937430778121</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07612559229778426</v>
+        <v>0.07584162125586036</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1124884149268604</v>
+        <v>0.1124308456692684</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.041782718818173</v>
+        <v>0.04107175846824067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07491379961352675</v>
+        <v>0.07548249483502541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06519552009908222</v>
+        <v>0.06513025264525865</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1011668932549904</v>
+        <v>0.1010612898060478</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04408078917753203</v>
+        <v>0.04478883268469382</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07453271142985975</v>
+        <v>0.07389557349272018</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06962901908668125</v>
+        <v>0.06903225529305342</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.109668322932629</v>
+        <v>0.1091360250898459</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07760428885653965</v>
+        <v>0.07769725075562772</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1250373971867564</v>
+        <v>0.1251600636480868</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.102918827279674</v>
+        <v>0.103280343440454</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1379138924717125</v>
+        <v>0.1384781550023878</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05717264210962938</v>
+        <v>0.05676298057776083</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09379468594592319</v>
+        <v>0.09444377252700081</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08347040785598911</v>
+        <v>0.08181044361625571</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1208466559662404</v>
+        <v>0.1202359078616294</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04355632246877734</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08497897221094716</v>
+        <v>0.08497897221094715</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04567911326424182</v>
@@ -969,7 +969,7 @@
         <v>0.04846121222633584</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08244828291309221</v>
+        <v>0.0824482829130922</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01421483907339597</v>
+        <v>0.01494127595330122</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02094637217512583</v>
+        <v>0.02121239195540093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03553435259266259</v>
+        <v>0.03541070881078523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06101670639364724</v>
+        <v>0.06013388857950527</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04447218605598324</v>
+        <v>0.04820394841852058</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03852045246007794</v>
+        <v>0.04020750325850668</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0296782907968698</v>
+        <v>0.02880460214236789</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06614896753038527</v>
+        <v>0.06720895107607544</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03379032383769705</v>
+        <v>0.03340266517437047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03392163287290293</v>
+        <v>0.03420091284179647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03630607642741093</v>
+        <v>0.03567436458925898</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06905728275551891</v>
+        <v>0.06886108286265046</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0472836844135695</v>
+        <v>0.04455203265240451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06085892294930597</v>
+        <v>0.06087087133447137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07751423718178053</v>
+        <v>0.07797816522300746</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1058305303144867</v>
+        <v>0.1050256136869368</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09122924903236027</v>
+        <v>0.09357912637907048</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09519719204320538</v>
+        <v>0.09494655458217419</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06497315952802343</v>
+        <v>0.06407972452622349</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1053740552734072</v>
+        <v>0.1057019399167306</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06075615600690462</v>
+        <v>0.06051482404930288</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06746359439549335</v>
+        <v>0.06688023575203429</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06318246542107034</v>
+        <v>0.06370424492704349</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09824810028739443</v>
+        <v>0.09772211945981002</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.09592044313529106</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.126552220676566</v>
+        <v>0.1265522206765661</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04347079510922459</v>
+        <v>0.04311919240961611</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07166190542638015</v>
+        <v>0.07116856361497267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06476770488048776</v>
+        <v>0.06551500820095411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09459123563534416</v>
+        <v>0.09539582829241172</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07630781500932482</v>
+        <v>0.07464912022895212</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1218226753955061</v>
+        <v>0.1213901722106888</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1055086699526365</v>
+        <v>0.1069119559089827</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1364308354857722</v>
+        <v>0.1363922042916269</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06151477481106755</v>
+        <v>0.06140327427333837</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09942891407942901</v>
+        <v>0.09965185477541784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08902705181737557</v>
+        <v>0.08874649387672763</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1195412877032879</v>
+        <v>0.1195270562256918</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05878697006560134</v>
+        <v>0.05893917124732632</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09040943240836886</v>
+        <v>0.09079807998713363</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0825588102530536</v>
+        <v>0.08353624720048847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1165440081379377</v>
+        <v>0.1165550255197946</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09491238670497443</v>
+        <v>0.09362382835817423</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1460648058035671</v>
+        <v>0.1442910931917902</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1283477248664351</v>
+        <v>0.1284683202629855</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1566433281302347</v>
+        <v>0.1561637120303925</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07437778645193248</v>
+        <v>0.07452005113067418</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1143890615377846</v>
+        <v>0.1145321235387147</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1032014640630131</v>
+        <v>0.1033062190107505</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1349275712630871</v>
+        <v>0.1338532370971472</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>77659</v>
+        <v>76186</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>114089</v>
+        <v>114259</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>82921</v>
+        <v>83129</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>84571</v>
+        <v>85519</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>127603</v>
+        <v>127604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>226296</v>
+        <v>221754</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>184959</v>
+        <v>184062</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>194392</v>
+        <v>192797</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>217481</v>
+        <v>216459</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>351697</v>
+        <v>348648</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>281157</v>
+        <v>282418</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>289901</v>
+        <v>285835</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>114400</v>
+        <v>113846</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>157229</v>
+        <v>159620</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>118814</v>
+        <v>118896</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>120681</v>
+        <v>121473</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>174419</v>
+        <v>174605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>282755</v>
+        <v>283025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>239818</v>
+        <v>240092</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>233802</v>
+        <v>234279</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>280264</v>
+        <v>274373</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>425590</v>
+        <v>423120</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>346807</v>
+        <v>345202</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>340925</v>
+        <v>342047</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>44136</v>
+        <v>43878</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>100926</v>
+        <v>102213</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>98218</v>
+        <v>101162</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>183122</v>
+        <v>181958</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>85598</v>
+        <v>84310</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>166065</v>
+        <v>165416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>151066</v>
+        <v>150502</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>244079</v>
+        <v>243954</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>137093</v>
+        <v>134760</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>278320</v>
+        <v>280433</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>264467</v>
+        <v>264202</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>444833</v>
+        <v>444369</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74647</v>
+        <v>75846</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>146190</v>
+        <v>144940</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>144278</v>
+        <v>143042</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>244254</v>
+        <v>243069</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>123210</v>
+        <v>123358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>219288</v>
+        <v>219503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>204235</v>
+        <v>204952</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>299247</v>
+        <v>300471</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>187588</v>
+        <v>186244</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>348466</v>
+        <v>350878</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>338600</v>
+        <v>331866</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>531365</v>
+        <v>528680</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7838</v>
+        <v>8239</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10059</v>
+        <v>10187</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19433</v>
+        <v>19366</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>43419</v>
+        <v>42790</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21187</v>
+        <v>22965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17626</v>
+        <v>18398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16266</v>
+        <v>15787</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48611</v>
+        <v>49390</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34730</v>
+        <v>34332</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>31812</v>
+        <v>32074</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>39754</v>
+        <v>39062</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>99889</v>
+        <v>99605</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26073</v>
+        <v>24566</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29227</v>
+        <v>29233</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42391</v>
+        <v>42645</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>75308</v>
+        <v>74735</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>43463</v>
+        <v>44582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43559</v>
+        <v>43444</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35610</v>
+        <v>35120</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>77437</v>
+        <v>77678</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>62446</v>
+        <v>62198</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>63268</v>
+        <v>62721</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>69182</v>
+        <v>69753</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>142112</v>
+        <v>141352</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>142434</v>
+        <v>141282</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>244669</v>
+        <v>242984</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>218419</v>
+        <v>220939</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>332663</v>
+        <v>335493</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>257859</v>
+        <v>252254</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>432251</v>
+        <v>430716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>371922</v>
+        <v>376869</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>508174</v>
+        <v>508030</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>409426</v>
+        <v>408684</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>692264</v>
+        <v>693816</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>614054</v>
+        <v>612119</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>865673</v>
+        <v>865570</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>192618</v>
+        <v>193117</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>308677</v>
+        <v>310004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>278417</v>
+        <v>281713</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>409868</v>
+        <v>409906</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>320728</v>
+        <v>316373</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>518266</v>
+        <v>511973</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>452431</v>
+        <v>452856</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>583461</v>
+        <v>581674</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>495039</v>
+        <v>495986</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>796423</v>
+        <v>797419</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>711820</v>
+        <v>712543</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>977094</v>
+        <v>969314</v>
       </c>
     </row>
     <row r="20">
